--- a/biology/Biochimie/Alpha-Carotène/Alpha-Carotène.xlsx
+++ b/biology/Biochimie/Alpha-Carotène/Alpha-Carotène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpha-Carot%C3%A8ne</t>
+          <t>Alpha-Carotène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'α-carotène est la deuxième forme de carotène la plus répandue, juste après le β-carotène.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alpha-Carot%C3%A8ne</t>
+          <t>Alpha-Carotène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les légumes suivants sont riches en α-carotène[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les légumes suivants sont riches en α-carotène :
 légumes jaune-orange : carotte (principale source pour les adultes des États-Unis), patate douce, citrouille, courge ;
 légumes vert foncé : brocoli, haricot vert, petit pois, épinard, navet, chou cavalier, laitue, avocat.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpha-Carot%C3%A8ne</t>
+          <t>Alpha-Carotène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'apport alimentaire influence le taux sanguin d'α-carotène, qui d'après une étude est associé à un risque plus faible de décès[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apport alimentaire influence le taux sanguin d'α-carotène, qui d'après une étude est associé à un risque plus faible de décès,.
 </t>
         </is>
       </c>
